--- a/res/config.xlsx
+++ b/res/config.xlsx
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,13 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>amit.sangwan.ct.008@gmail.com</t>
-  </si>
-  <si>
-    <t>Onelogin@54321</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>https://mettl.com/</t>
   </si>
@@ -80,13 +74,43 @@
     <t>BROWSER</t>
   </si>
   <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>VALID USERNAME</t>
+  </si>
+  <si>
+    <t>VALID PASSWORD</t>
+  </si>
+  <si>
+    <t>INVALID USERNAME</t>
+  </si>
+  <si>
+    <t>INVALID PASSWORD</t>
+  </si>
+  <si>
+    <t>UNREGISTERED USERNAME</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>XASDASASDADSADSADSADSADSADSADSADSADSADSADSADSADSADSADSADSADSADSAD</t>
+  </si>
+  <si>
+    <t>AMIT@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>UNREGISTERED PASSWORD</t>
+  </si>
+  <si>
+    <t>xxxyyyzzz@yandex.com</t>
+  </si>
+  <si>
+    <t>bpepa1317j@gmail.com</t>
+  </si>
+  <si>
+    <t>Logmein@123</t>
   </si>
   <si>
     <t>Chrome</t>
@@ -152,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +185,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,17 +482,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -474,15 +501,47 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -490,14 +549,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Select Browser" promptTitle="Select Browser" sqref="B1">
       <formula1>"Firefox,Chrome,Safari"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"&lt;some other url&gt;,&lt; one more url &gt; , &lt; and so on &gt;"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>